--- a/Program/data/Sound/サウンドリスト（灰色はエフェクト入れ込み部分）.xlsx
+++ b/Program/data/Sound/サウンドリスト（灰色はエフェクト入れ込み部分）.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="169">
   <si>
     <t>シーン名</t>
     <rPh sb="3" eb="4">
@@ -887,6 +887,10 @@
   </si>
   <si>
     <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1288,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1464,6 +1468,9 @@
       </c>
       <c r="H11" s="2" t="s">
         <v>162</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
